--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC19-EQUIPO 3.5  TIT IRENE # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC19-EQUIPO 3.5  TIT IRENE # 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5B362-23AE-403B-AE06-19B79BB80909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72600131-0E45-4758-8781-0AC830F45D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="135" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="3" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1005,10 +994,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1441,7 +1430,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1559,7 +1548,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1569,7 +1558,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,8 +1631,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1683,27 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1776,9 +1765,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1816,7 +1805,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1922,7 +1911,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2064,7 +2053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2077,8 +2066,8 @@
   </sheetPr>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2105,50 +2094,50 @@
     <row r="2" spans="1:7" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="50"/>
       <c r="B3" s="51"/>
-      <c r="C3" s="85"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="52" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="65"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="18.75" thickBot="1">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="92" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="17"/>
@@ -2165,7 +2154,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="53">
         <f ca="1">NOW()</f>
-        <v>45392.673799074073</v>
+        <v>45397.919876851854</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>33</v>
@@ -2173,8 +2162,8 @@
       <c r="E7" s="54">
         <v>20230200001</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6"/>
@@ -2199,8 +2188,8 @@
       <c r="E9" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6"/>
@@ -2212,10 +2201,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="57" t="s">
         <v>218</v>
       </c>
@@ -2225,8 +2214,8 @@
       <c r="E11" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6"/>
@@ -2251,8 +2240,8 @@
       <c r="E13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6"/>
@@ -2299,8 +2288,8 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6"/>
@@ -3922,7 +3911,7 @@
       <c r="A102" s="72"/>
       <c r="C102" s="73"/>
       <c r="D102" s="74"/>
-      <c r="F102" s="100" t="s">
+      <c r="F102" s="81" t="s">
         <v>267</v>
       </c>
       <c r="G102" s="80">
@@ -3934,7 +3923,7 @@
       <c r="A103" s="72"/>
       <c r="C103" s="73"/>
       <c r="D103" s="74"/>
-      <c r="F103" s="100" t="s">
+      <c r="F103" s="81" t="s">
         <v>271</v>
       </c>
       <c r="G103" s="80">
@@ -3946,7 +3935,7 @@
       <c r="A104" s="72"/>
       <c r="C104" s="73"/>
       <c r="D104" s="74"/>
-      <c r="F104" s="100" t="s">
+      <c r="F104" s="81" t="s">
         <v>251</v>
       </c>
       <c r="G104" s="80">
@@ -4663,12 +4652,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F5:G5"/>
@@ -4677,6 +4660,12 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC19-EQUIPO 3.5  TIT IRENE # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC19-EQUIPO 3.5  TIT IRENE # 1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72600131-0E45-4758-8781-0AC830F45D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="135" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INQUIORT!$A$1:$G$145</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -992,12 +991,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1430,7 +1429,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1548,7 +1547,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1558,7 +1557,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,11 +1630,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1654,53 +1692,14 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moneda" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2060,26 +2059,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:C160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="23.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" thickBot="1">
@@ -2094,52 +2093,52 @@
     <row r="2" spans="1:7" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="50"/>
       <c r="B3" s="51"/>
-      <c r="C3" s="92"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="52" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="65"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" ht="18.75" thickBot="1">
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" ht="18.5" thickBot="1">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E5" s="94"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -2147,14 +2146,14 @@
       <c r="E6" s="66"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="53">
         <f ca="1">NOW()</f>
-        <v>45397.919876851854</v>
+        <v>45400.350627199077</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>33</v>
@@ -2162,10 +2161,10 @@
       <c r="E7" s="54">
         <v>20230200001</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2174,7 +2173,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -2188,10 +2187,10 @@
       <c r="E9" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2201,10 +2200,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="57" t="s">
         <v>218</v>
       </c>
@@ -2214,10 +2213,10 @@
       <c r="E11" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2226,7 +2225,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
@@ -2240,10 +2239,10 @@
       <c r="E13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2252,7 +2251,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>38</v>
       </c>
@@ -2269,7 +2268,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2278,7 +2277,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
@@ -2288,10 +2287,10 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2300,7 +2299,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
@@ -2317,7 +2316,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2326,7 +2325,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>212</v>
       </c>
@@ -2339,7 +2338,7 @@
       <c r="F21" s="63"/>
       <c r="G21" s="64"/>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="1"/>
@@ -3031,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7">
       <c r="A57" s="21"/>
       <c r="B57" s="20"/>
       <c r="C57" s="38"/>
@@ -3683,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="41"/>
@@ -3875,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7">
       <c r="A100" s="21"/>
       <c r="B100" s="20"/>
       <c r="C100" s="30"/>
@@ -3907,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75">
+    <row r="102" spans="1:7">
       <c r="A102" s="72"/>
       <c r="C102" s="73"/>
       <c r="D102" s="74"/>
@@ -3919,7 +3918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75">
+    <row r="103" spans="1:7">
       <c r="A103" s="72"/>
       <c r="C103" s="73"/>
       <c r="D103" s="74"/>
@@ -3931,7 +3930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75">
+    <row r="104" spans="1:7">
       <c r="A104" s="72"/>
       <c r="C104" s="73"/>
       <c r="D104" s="74"/>
@@ -4198,7 +4197,7 @@
       <c r="F128" s="25"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75">
+    <row r="129" spans="1:7">
       <c r="A129" s="26"/>
       <c r="B129" s="34">
         <f>SUM(B113:B128)</f>
@@ -4209,7 +4208,7 @@
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75">
+    <row r="130" spans="1:7">
       <c r="B130" s="34"/>
       <c r="C130" s="34" t="s">
         <v>18</v>
@@ -4240,7 +4239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="134" spans="1:7" s="5" customFormat="1">
       <c r="B134" s="23">
         <v>3</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="135" spans="1:7" s="5" customFormat="1">
       <c r="B135" s="23">
         <v>1</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="136" spans="1:7" s="5" customFormat="1">
       <c r="B136" s="23">
         <v>1</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="137" spans="1:7" s="5" customFormat="1">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="138" spans="1:7" s="5" customFormat="1">
       <c r="B138" s="23">
         <v>1</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="139" spans="1:7" s="5" customFormat="1">
       <c r="B139" s="23">
         <v>1</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75">
+    <row r="140" spans="1:7" customFormat="1">
       <c r="B140" s="23">
         <v>2</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75">
+    <row r="141" spans="1:7" customFormat="1">
       <c r="B141" s="23">
         <v>2</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="142" spans="1:7" s="5" customFormat="1">
       <c r="B142" s="23">
         <v>3</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="5" customFormat="1" ht="15.75">
+    <row r="143" spans="1:7" s="5" customFormat="1">
       <c r="B143" s="23">
         <v>1</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="144" spans="1:7" s="19" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="23">
         <v>2</v>
@@ -4329,7 +4328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="145" spans="1:3" s="19" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="23">
         <v>1</v>
@@ -4354,14 +4353,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75">
+    <row r="148" spans="1:3">
       <c r="B148" s="34">
         <f>SUM(B131:B147)</f>
         <v>26</v>
       </c>
       <c r="C148" s="30"/>
     </row>
-    <row r="149" spans="1:3" ht="15.75">
+    <row r="149" spans="1:3">
       <c r="B149" s="34"/>
       <c r="C149" s="34" t="s">
         <v>205</v>
@@ -4447,7 +4446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75">
+    <row r="160" spans="1:3">
       <c r="B160" s="34">
         <f>SUM(B150:B159)</f>
         <v>15</v>
@@ -4506,7 +4505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="15.75">
+    <row r="168" spans="2:3">
       <c r="B168" s="35">
         <f>SUM(B162:B167)</f>
         <v>12</v>
@@ -4587,7 +4586,7 @@
     <row r="185" spans="2:3">
       <c r="C185" s="11"/>
     </row>
-    <row r="186" spans="2:3" ht="15.75" thickBot="1">
+    <row r="186" spans="2:3" ht="16" thickBot="1">
       <c r="B186" s="1" t="s">
         <v>246</v>
       </c>
@@ -4599,7 +4598,7 @@
     <row r="188" spans="2:3">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:3" ht="15.75" thickBot="1">
+    <row r="189" spans="2:3" ht="16" thickBot="1">
       <c r="B189" s="1" t="s">
         <v>247</v>
       </c>
@@ -4617,7 +4616,7 @@
     <row r="193" spans="2:3">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:3" ht="15.75" thickBot="1">
+    <row r="194" spans="2:3" ht="16" thickBot="1">
       <c r="B194" s="1" t="s">
         <v>119</v>
       </c>
@@ -4632,7 +4631,7 @@
     <row r="197" spans="2:3">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:3" ht="15.75" thickBot="1">
+    <row r="198" spans="2:3" ht="16" thickBot="1">
       <c r="B198" s="1" t="s">
         <v>248</v>
       </c>
@@ -4644,7 +4643,7 @@
     <row r="200" spans="2:3">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:3" ht="15.75" thickBot="1">
+    <row r="201" spans="2:3" ht="16" thickBot="1">
       <c r="B201" s="1" t="s">
         <v>184</v>
       </c>
@@ -4652,6 +4651,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F5:G5"/>
@@ -4660,12 +4665,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC19-EQUIPO 3.5  TIT IRENE # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC19-EQUIPO 3.5  TIT IRENE # 1.xlsx
@@ -859,9 +859,6 @@
     <t>T500935045</t>
   </si>
   <si>
-    <t>2300036847</t>
-  </si>
-  <si>
     <t>Ti-102.216</t>
   </si>
   <si>
@@ -986,6 +983,9 @@
   </si>
   <si>
     <t>IVA 15%</t>
+  </si>
+  <si>
+    <t>2100022698</t>
   </si>
 </sst>
 </file>
@@ -2065,8 +2065,8 @@
   </sheetPr>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:C160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
@@ -2153,7 +2153,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="53">
         <f ca="1">NOW()</f>
-        <v>45400.350627199077</v>
+        <v>45404.366891666665</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>33</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>1</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="20">
         <v>2300021659</v>
@@ -2657,7 +2657,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>191</v>
@@ -3087,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>164</v>
@@ -3107,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>164</v>
@@ -3127,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>165</v>
@@ -3327,7 +3327,7 @@
         <v>103</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>174</v>
@@ -3387,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>176</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D77" s="4">
         <v>2</v>
@@ -3447,7 +3447,7 @@
         <v>228</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>227</v>
@@ -3507,7 +3507,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>180</v>
@@ -3524,13 +3524,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="39" t="s">
         <v>253</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>254</v>
       </c>
       <c r="D82" s="4">
         <v>6</v>
@@ -3604,13 +3604,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" s="4">
         <v>4</v>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" s="4">
         <v>5</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -3664,13 +3664,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="4">
         <v>4</v>
@@ -3894,7 +3894,7 @@
         <v>210228152</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D101" s="22">
         <v>6</v>
@@ -3911,7 +3911,7 @@
       <c r="C102" s="73"/>
       <c r="D102" s="74"/>
       <c r="F102" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G102" s="80">
         <f>SUM(G24:G101)</f>
@@ -3923,7 +3923,7 @@
       <c r="C103" s="73"/>
       <c r="D103" s="74"/>
       <c r="F103" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G103" s="80">
         <f>+G102*0.15</f>
@@ -3935,7 +3935,7 @@
       <c r="C104" s="73"/>
       <c r="D104" s="74"/>
       <c r="F104" s="81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G104" s="80">
         <f>+G102+G103</f>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4514,34 +4514,34 @@
     </row>
     <row r="172" spans="2:3" ht="18">
       <c r="B172" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" s="76" t="s">
         <v>237</v>
-      </c>
-      <c r="C172" s="76" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="18">
       <c r="B173" s="77"/>
       <c r="C173" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="18">
       <c r="B174" s="77"/>
       <c r="C174" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="18">
       <c r="B175" s="77"/>
       <c r="C175" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="18">
       <c r="B176" s="77"/>
       <c r="C176" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="18">
@@ -4553,19 +4553,19 @@
         <v>210</v>
       </c>
       <c r="C178" s="79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="18">
       <c r="B179" s="78"/>
       <c r="C179" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="18">
       <c r="B180" s="78"/>
       <c r="C180" s="79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="18">
@@ -4588,7 +4588,7 @@
     </row>
     <row r="186" spans="2:3" ht="16" thickBot="1">
       <c r="B186" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C186" s="28"/>
     </row>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="189" spans="2:3" ht="16" thickBot="1">
       <c r="B189" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C189" s="28"/>
     </row>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="198" spans="2:3" ht="16" thickBot="1">
       <c r="B198" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C198" s="28"/>
     </row>
